--- a/en/shell/Shell_Script_Development_Standard.xlsx
+++ b/en/shell/Shell_Script_Development_Standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F9E0A-6108-4D33-BC3D-FD8555CA2DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D58ABF-4834-4ECB-B3E6-41BE72D936B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3340" windowWidth="28800" windowHeight="15540" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="21" r:id="rId1"/>
@@ -17,8 +17,6 @@
     <sheet name="Nablarch EDI Management Policy" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc207619135" localSheetId="5">'3. Sample script'!$E$271</definedName>
-    <definedName name="_Toc207619136" localSheetId="5">'3. Sample script'!$E$335</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Introduction'!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Script protocol'!$A$1:$AI$244</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. Sample script'!$A$1:$AI$348</definedName>
@@ -5121,84 +5119,6 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5313,13 +5233,109 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5376,24 +5392,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5406,6 +5404,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5419,46 +5432,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5468,6 +5451,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11834,57 +11832,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="124" t="s">
         <v>387</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="159" t="s">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="133" t="s">
         <v>393</v>
       </c>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="141" t="s">
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="142" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="133">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="107">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="109"/>
       <c r="AJ1" s="93"/>
       <c r="AK1" s="93"/>
       <c r="AL1" s="93"/>
@@ -11892,53 +11890,53 @@
       <c r="AN1" s="94"/>
     </row>
     <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="141" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="147" t="str">
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="133" t="str">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="107" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="109"/>
       <c r="AJ2" s="93"/>
       <c r="AK2" s="93"/>
       <c r="AL2" s="93"/>
@@ -11946,43 +11944,43 @@
       <c r="AN2" s="93"/>
     </row>
     <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="115" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="109"/>
       <c r="AJ3" s="93"/>
       <c r="AK3" s="93"/>
       <c r="AL3" s="93"/>
@@ -12019,1031 +12017,1187 @@
       <c r="A7" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="110" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="138" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="138" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="138" t="s">
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="138" t="s">
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="140"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="114"/>
     </row>
     <row r="8" spans="1:40" s="102" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="103">
         <v>1</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="157" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121">
+      <c r="C8" s="158"/>
+      <c r="D8" s="159">
         <v>43336</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162" t="s">
         <v>402</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165" t="s">
         <v>403</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130" t="s">
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="168" t="s">
         <v>404</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="127" t="s">
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
+      <c r="AD8" s="169"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="165" t="s">
         <v>405</v>
       </c>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="129"/>
+      <c r="AG8" s="166"/>
+      <c r="AH8" s="166"/>
+      <c r="AI8" s="167"/>
     </row>
     <row r="9" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="104"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="115"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="153"/>
     </row>
     <row r="10" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="115"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="153"/>
     </row>
     <row r="11" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="115"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="152"/>
+      <c r="AH11" s="152"/>
+      <c r="AI11" s="153"/>
     </row>
     <row r="12" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="115"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="153"/>
     </row>
     <row r="13" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="104"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="115"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="153"/>
     </row>
     <row r="14" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="104"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="115"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="155"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="153"/>
     </row>
     <row r="15" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="104"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="115"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="152"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="153"/>
     </row>
     <row r="16" spans="1:40" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="104"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="115"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="153"/>
     </row>
     <row r="17" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="104"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="114"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="115"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="153"/>
     </row>
     <row r="18" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="115"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="153"/>
     </row>
     <row r="19" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="104"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="115"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="153"/>
     </row>
     <row r="20" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="104"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="115"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="153"/>
     </row>
     <row r="21" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="115"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="153"/>
     </row>
     <row r="22" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="115"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="153"/>
     </row>
     <row r="23" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="104"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="115"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="153"/>
     </row>
     <row r="24" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="104"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="115"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="153"/>
     </row>
     <row r="25" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="104"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="115"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="153"/>
     </row>
     <row r="26" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="104"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="114"/>
-      <c r="AH26" s="114"/>
-      <c r="AI26" s="115"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="153"/>
     </row>
     <row r="27" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="104"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="114"/>
-      <c r="AI27" s="115"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="153"/>
     </row>
     <row r="28" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="104"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="115"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="153"/>
     </row>
     <row r="29" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="104"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="115"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="152"/>
+      <c r="AH29" s="152"/>
+      <c r="AI29" s="153"/>
     </row>
     <row r="30" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="104"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="115"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="152"/>
+      <c r="AI30" s="153"/>
     </row>
     <row r="31" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="104"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="115"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="152"/>
+      <c r="AH31" s="152"/>
+      <c r="AI31" s="153"/>
     </row>
     <row r="32" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="104"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="115"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="152"/>
+      <c r="AI32" s="153"/>
     </row>
     <row r="33" spans="1:35" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="104"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="115"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13067,162 +13221,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13379,169 +13377,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="str">
+      <c r="A1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="144" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="180" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Shell Script Development Standard</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="171" t="str">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="str">
+      <c r="A2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="144" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="str">
+      <c r="A3" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="144" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15020,14 +15018,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15037,6 +15027,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -15063,169 +15061,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="str">
+      <c r="A1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="144" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="180" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Shell Script Development Standard</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="171" t="str">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="str">
+      <c r="A2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="144" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="str">
+      <c r="A3" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="144" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15652,6 +15650,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -15659,18 +15669,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -15701,169 +15699,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="str">
+      <c r="A1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="144" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="180" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Shell Script Development Standard</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="171" t="str">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="str">
+      <c r="A2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="144" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="str">
+      <c r="A3" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="144" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16528,33 +16526,33 @@
       <c r="F21" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="215" t="s">
+      <c r="G21" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="216"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="216"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="216"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="216"/>
-      <c r="S21" s="215" t="s">
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="206"/>
+      <c r="O21" s="206"/>
+      <c r="P21" s="206"/>
+      <c r="Q21" s="206"/>
+      <c r="R21" s="206"/>
+      <c r="S21" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="T21" s="216"/>
-      <c r="U21" s="216"/>
-      <c r="V21" s="216"/>
-      <c r="W21" s="216"/>
-      <c r="X21" s="216"/>
-      <c r="Y21" s="216"/>
-      <c r="Z21" s="216"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
+      <c r="T21" s="206"/>
+      <c r="U21" s="206"/>
+      <c r="V21" s="206"/>
+      <c r="W21" s="206"/>
+      <c r="X21" s="206"/>
+      <c r="Y21" s="206"/>
+      <c r="Z21" s="206"/>
+      <c r="AA21" s="206"/>
+      <c r="AB21" s="206"/>
+      <c r="AC21" s="206"/>
       <c r="AD21" s="43"/>
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
@@ -16571,33 +16569,33 @@
       <c r="F22" s="64">
         <v>1</v>
       </c>
-      <c r="G22" s="210" t="s">
+      <c r="G22" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="211"/>
-      <c r="Q22" s="211"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="210" t="s">
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="208"/>
+      <c r="R22" s="208"/>
+      <c r="S22" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="211"/>
-      <c r="AC22" s="211"/>
+      <c r="T22" s="208"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="208"/>
+      <c r="X22" s="208"/>
+      <c r="Y22" s="208"/>
+      <c r="Z22" s="208"/>
+      <c r="AA22" s="208"/>
+      <c r="AB22" s="208"/>
+      <c r="AC22" s="208"/>
       <c r="AD22" s="43"/>
       <c r="AE22" s="43"/>
       <c r="AF22" s="43"/>
@@ -16614,33 +16612,33 @@
       <c r="F23" s="64">
         <v>2</v>
       </c>
-      <c r="G23" s="210" t="s">
+      <c r="G23" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="210" t="s">
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="208"/>
+      <c r="S23" s="207" t="s">
         <v>161</v>
       </c>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211"/>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="211"/>
-      <c r="AC23" s="211"/>
+      <c r="T23" s="208"/>
+      <c r="U23" s="208"/>
+      <c r="V23" s="208"/>
+      <c r="W23" s="208"/>
+      <c r="X23" s="208"/>
+      <c r="Y23" s="208"/>
+      <c r="Z23" s="208"/>
+      <c r="AA23" s="208"/>
+      <c r="AB23" s="208"/>
+      <c r="AC23" s="208"/>
       <c r="AD23" s="43"/>
       <c r="AE23" s="43"/>
       <c r="AF23" s="43"/>
@@ -16771,33 +16769,33 @@
       <c r="F27" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="206" t="s">
+      <c r="G27" s="211" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="207"/>
-      <c r="K27" s="207"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="207"/>
-      <c r="S27" s="206" t="s">
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="212"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="212"/>
+      <c r="S27" s="211" t="s">
         <v>165</v>
       </c>
-      <c r="T27" s="207"/>
-      <c r="U27" s="207"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="207"/>
+      <c r="T27" s="212"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="212"/>
+      <c r="X27" s="212"/>
+      <c r="Y27" s="212"/>
+      <c r="Z27" s="212"/>
+      <c r="AA27" s="212"/>
+      <c r="AB27" s="212"/>
+      <c r="AC27" s="212"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="43"/>
       <c r="AF27" s="43"/>
@@ -16814,33 +16812,33 @@
       <c r="F28" s="78">
         <v>1</v>
       </c>
-      <c r="G28" s="212" t="s">
+      <c r="G28" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="213"/>
-      <c r="P28" s="213"/>
-      <c r="Q28" s="213"/>
-      <c r="R28" s="213"/>
-      <c r="S28" s="205" t="s">
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="205"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="205"/>
-      <c r="AC28" s="205"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="210"/>
       <c r="AD28" s="43"/>
       <c r="AE28" s="43"/>
       <c r="AF28" s="43"/>
@@ -16857,33 +16855,33 @@
       <c r="F29" s="78">
         <v>2</v>
       </c>
-      <c r="G29" s="204" t="s">
+      <c r="G29" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="205"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="205"/>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="205" t="s">
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="210"/>
+      <c r="S29" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="205"/>
-      <c r="U29" s="205"/>
-      <c r="V29" s="205"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
-      <c r="Y29" s="205"/>
-      <c r="Z29" s="205"/>
-      <c r="AA29" s="205"/>
-      <c r="AB29" s="205"/>
-      <c r="AC29" s="205"/>
+      <c r="T29" s="210"/>
+      <c r="U29" s="210"/>
+      <c r="V29" s="210"/>
+      <c r="W29" s="210"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
+      <c r="Z29" s="210"/>
+      <c r="AA29" s="210"/>
+      <c r="AB29" s="210"/>
+      <c r="AC29" s="210"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
@@ -16900,33 +16898,33 @@
       <c r="F30" s="78">
         <v>3</v>
       </c>
-      <c r="G30" s="204" t="s">
+      <c r="G30" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="205"/>
-      <c r="Q30" s="205"/>
-      <c r="R30" s="205"/>
-      <c r="S30" s="205" t="s">
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="210"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="210"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="T30" s="205"/>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="205"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="205"/>
-      <c r="AA30" s="205"/>
-      <c r="AB30" s="205"/>
-      <c r="AC30" s="205"/>
+      <c r="T30" s="210"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
@@ -16943,33 +16941,33 @@
       <c r="F31" s="76">
         <v>4</v>
       </c>
-      <c r="G31" s="204" t="s">
+      <c r="G31" s="209" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="205"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205" t="s">
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="210"/>
+      <c r="M31" s="210"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="210"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="210"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="205"/>
-      <c r="U31" s="205"/>
-      <c r="V31" s="205"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="205"/>
-      <c r="AA31" s="205"/>
-      <c r="AB31" s="205"/>
-      <c r="AC31" s="205"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="210"/>
+      <c r="V31" s="210"/>
+      <c r="W31" s="210"/>
+      <c r="X31" s="210"/>
+      <c r="Y31" s="210"/>
+      <c r="Z31" s="210"/>
+      <c r="AA31" s="210"/>
+      <c r="AB31" s="210"/>
+      <c r="AC31" s="210"/>
       <c r="AD31" s="43"/>
       <c r="AE31" s="43"/>
       <c r="AF31" s="43"/>
@@ -16986,33 +16984,33 @@
       <c r="F32" s="76">
         <v>5</v>
       </c>
-      <c r="G32" s="204" t="s">
+      <c r="G32" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="205"/>
-      <c r="Q32" s="205"/>
-      <c r="R32" s="205"/>
-      <c r="S32" s="205" t="s">
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="210"/>
+      <c r="P32" s="210"/>
+      <c r="Q32" s="210"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="205"/>
-      <c r="U32" s="205"/>
-      <c r="V32" s="205"/>
-      <c r="W32" s="205"/>
-      <c r="X32" s="205"/>
-      <c r="Y32" s="205"/>
-      <c r="Z32" s="205"/>
-      <c r="AA32" s="205"/>
-      <c r="AB32" s="205"/>
-      <c r="AC32" s="205"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="210"/>
+      <c r="AA32" s="210"/>
+      <c r="AB32" s="210"/>
+      <c r="AC32" s="210"/>
       <c r="AD32" s="43"/>
       <c r="AE32" s="43"/>
       <c r="AF32" s="43"/>
@@ -17029,33 +17027,33 @@
       <c r="F33" s="76">
         <v>6</v>
       </c>
-      <c r="G33" s="204" t="s">
+      <c r="G33" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="205"/>
-      <c r="Q33" s="205"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="205" t="s">
+      <c r="H33" s="210"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="210"/>
+      <c r="R33" s="210"/>
+      <c r="S33" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="T33" s="205"/>
-      <c r="U33" s="205"/>
-      <c r="V33" s="205"/>
-      <c r="W33" s="205"/>
-      <c r="X33" s="205"/>
-      <c r="Y33" s="205"/>
-      <c r="Z33" s="205"/>
-      <c r="AA33" s="205"/>
-      <c r="AB33" s="205"/>
-      <c r="AC33" s="205"/>
+      <c r="T33" s="210"/>
+      <c r="U33" s="210"/>
+      <c r="V33" s="210"/>
+      <c r="W33" s="210"/>
+      <c r="X33" s="210"/>
+      <c r="Y33" s="210"/>
+      <c r="Z33" s="210"/>
+      <c r="AA33" s="210"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="210"/>
       <c r="AD33" s="43"/>
       <c r="AE33" s="43"/>
       <c r="AF33" s="43"/>
@@ -17260,34 +17258,34 @@
       <c r="E39" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="206" t="s">
+      <c r="F39" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="207"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="207"/>
-      <c r="N39" s="207"/>
-      <c r="O39" s="207"/>
-      <c r="P39" s="207"/>
-      <c r="Q39" s="207"/>
-      <c r="R39" s="206" t="s">
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="212"/>
+      <c r="M39" s="212"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="212"/>
+      <c r="P39" s="212"/>
+      <c r="Q39" s="212"/>
+      <c r="R39" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="S39" s="207"/>
-      <c r="T39" s="207"/>
-      <c r="U39" s="207"/>
-      <c r="V39" s="207"/>
-      <c r="W39" s="207"/>
-      <c r="X39" s="207"/>
-      <c r="Y39" s="207"/>
-      <c r="Z39" s="207"/>
-      <c r="AA39" s="207"/>
-      <c r="AB39" s="207"/>
-      <c r="AC39" s="207"/>
+      <c r="S39" s="212"/>
+      <c r="T39" s="212"/>
+      <c r="U39" s="212"/>
+      <c r="V39" s="212"/>
+      <c r="W39" s="212"/>
+      <c r="X39" s="212"/>
+      <c r="Y39" s="212"/>
+      <c r="Z39" s="212"/>
+      <c r="AA39" s="212"/>
+      <c r="AB39" s="212"/>
+      <c r="AC39" s="212"/>
       <c r="AD39" s="43"/>
       <c r="AE39" s="43"/>
       <c r="AF39" s="43"/>
@@ -17303,34 +17301,34 @@
       <c r="E40" s="78">
         <v>1</v>
       </c>
-      <c r="F40" s="204" t="s">
+      <c r="F40" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="205"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="205"/>
-      <c r="M40" s="205"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="205"/>
-      <c r="P40" s="205"/>
-      <c r="Q40" s="205"/>
-      <c r="R40" s="208" t="s">
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="210"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="210"/>
+      <c r="O40" s="210"/>
+      <c r="P40" s="210"/>
+      <c r="Q40" s="210"/>
+      <c r="R40" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="S40" s="209"/>
-      <c r="T40" s="209"/>
-      <c r="U40" s="209"/>
-      <c r="V40" s="209"/>
-      <c r="W40" s="209"/>
-      <c r="X40" s="209"/>
-      <c r="Y40" s="209"/>
-      <c r="Z40" s="209"/>
-      <c r="AA40" s="209"/>
-      <c r="AB40" s="209"/>
-      <c r="AC40" s="209"/>
+      <c r="S40" s="216"/>
+      <c r="T40" s="216"/>
+      <c r="U40" s="216"/>
+      <c r="V40" s="216"/>
+      <c r="W40" s="216"/>
+      <c r="X40" s="216"/>
+      <c r="Y40" s="216"/>
+      <c r="Z40" s="216"/>
+      <c r="AA40" s="216"/>
+      <c r="AB40" s="216"/>
+      <c r="AC40" s="216"/>
       <c r="AD40" s="43"/>
       <c r="AE40" s="43"/>
       <c r="AF40" s="43"/>
@@ -17346,34 +17344,34 @@
       <c r="E41" s="78">
         <v>2</v>
       </c>
-      <c r="F41" s="204" t="s">
+      <c r="F41" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="208" t="s">
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="210"/>
+      <c r="M41" s="210"/>
+      <c r="N41" s="210"/>
+      <c r="O41" s="210"/>
+      <c r="P41" s="210"/>
+      <c r="Q41" s="210"/>
+      <c r="R41" s="215" t="s">
         <v>185</v>
       </c>
-      <c r="S41" s="209"/>
-      <c r="T41" s="209"/>
-      <c r="U41" s="209"/>
-      <c r="V41" s="209"/>
-      <c r="W41" s="209"/>
-      <c r="X41" s="209"/>
-      <c r="Y41" s="209"/>
-      <c r="Z41" s="209"/>
-      <c r="AA41" s="209"/>
-      <c r="AB41" s="209"/>
-      <c r="AC41" s="209"/>
+      <c r="S41" s="216"/>
+      <c r="T41" s="216"/>
+      <c r="U41" s="216"/>
+      <c r="V41" s="216"/>
+      <c r="W41" s="216"/>
+      <c r="X41" s="216"/>
+      <c r="Y41" s="216"/>
+      <c r="Z41" s="216"/>
+      <c r="AA41" s="216"/>
+      <c r="AB41" s="216"/>
+      <c r="AC41" s="216"/>
       <c r="AD41" s="43"/>
       <c r="AE41" s="43"/>
       <c r="AF41" s="43"/>
@@ -17389,34 +17387,34 @@
       <c r="E42" s="78">
         <v>3</v>
       </c>
-      <c r="F42" s="204" t="s">
+      <c r="F42" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="205"/>
-      <c r="K42" s="205"/>
-      <c r="L42" s="205"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="205"/>
-      <c r="Q42" s="205"/>
-      <c r="R42" s="208" t="s">
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="210"/>
+      <c r="N42" s="210"/>
+      <c r="O42" s="210"/>
+      <c r="P42" s="210"/>
+      <c r="Q42" s="210"/>
+      <c r="R42" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="S42" s="209"/>
-      <c r="T42" s="209"/>
-      <c r="U42" s="209"/>
-      <c r="V42" s="209"/>
-      <c r="W42" s="209"/>
-      <c r="X42" s="209"/>
-      <c r="Y42" s="209"/>
-      <c r="Z42" s="209"/>
-      <c r="AA42" s="209"/>
-      <c r="AB42" s="209"/>
-      <c r="AC42" s="209"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
+      <c r="X42" s="216"/>
+      <c r="Y42" s="216"/>
+      <c r="Z42" s="216"/>
+      <c r="AA42" s="216"/>
+      <c r="AB42" s="216"/>
+      <c r="AC42" s="216"/>
       <c r="AD42" s="43"/>
       <c r="AE42" s="43"/>
       <c r="AF42" s="43"/>
@@ -17432,34 +17430,34 @@
       <c r="E43" s="76">
         <v>4</v>
       </c>
-      <c r="F43" s="204" t="s">
+      <c r="F43" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="205"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="205"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="208" t="s">
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="210"/>
+      <c r="O43" s="210"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="210"/>
+      <c r="R43" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="S43" s="209"/>
-      <c r="T43" s="209"/>
-      <c r="U43" s="209"/>
-      <c r="V43" s="209"/>
-      <c r="W43" s="209"/>
-      <c r="X43" s="209"/>
-      <c r="Y43" s="209"/>
-      <c r="Z43" s="209"/>
-      <c r="AA43" s="209"/>
-      <c r="AB43" s="209"/>
-      <c r="AC43" s="209"/>
+      <c r="S43" s="216"/>
+      <c r="T43" s="216"/>
+      <c r="U43" s="216"/>
+      <c r="V43" s="216"/>
+      <c r="W43" s="216"/>
+      <c r="X43" s="216"/>
+      <c r="Y43" s="216"/>
+      <c r="Z43" s="216"/>
+      <c r="AA43" s="216"/>
+      <c r="AB43" s="216"/>
+      <c r="AC43" s="216"/>
       <c r="AD43" s="43"/>
       <c r="AE43" s="43"/>
       <c r="AF43" s="43"/>
@@ -17475,34 +17473,34 @@
       <c r="E44" s="76">
         <v>5</v>
       </c>
-      <c r="F44" s="204" t="s">
+      <c r="F44" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="208" t="s">
+      <c r="G44" s="210"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="210"/>
+      <c r="J44" s="210"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="210"/>
+      <c r="P44" s="210"/>
+      <c r="Q44" s="210"/>
+      <c r="R44" s="215" t="s">
         <v>181</v>
       </c>
-      <c r="S44" s="209"/>
-      <c r="T44" s="209"/>
-      <c r="U44" s="209"/>
-      <c r="V44" s="209"/>
-      <c r="W44" s="209"/>
-      <c r="X44" s="209"/>
-      <c r="Y44" s="209"/>
-      <c r="Z44" s="209"/>
-      <c r="AA44" s="209"/>
-      <c r="AB44" s="209"/>
-      <c r="AC44" s="209"/>
+      <c r="S44" s="216"/>
+      <c r="T44" s="216"/>
+      <c r="U44" s="216"/>
+      <c r="V44" s="216"/>
+      <c r="W44" s="216"/>
+      <c r="X44" s="216"/>
+      <c r="Y44" s="216"/>
+      <c r="Z44" s="216"/>
+      <c r="AA44" s="216"/>
+      <c r="AB44" s="216"/>
+      <c r="AC44" s="216"/>
       <c r="AD44" s="43"/>
       <c r="AE44" s="43"/>
       <c r="AF44" s="43"/>
@@ -17518,34 +17516,34 @@
       <c r="E45" s="76">
         <v>6</v>
       </c>
-      <c r="F45" s="204" t="s">
+      <c r="F45" s="209" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="205"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="208" t="s">
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="210"/>
+      <c r="P45" s="210"/>
+      <c r="Q45" s="210"/>
+      <c r="R45" s="215" t="s">
         <v>182</v>
       </c>
-      <c r="S45" s="209"/>
-      <c r="T45" s="209"/>
-      <c r="U45" s="209"/>
-      <c r="V45" s="209"/>
-      <c r="W45" s="209"/>
-      <c r="X45" s="209"/>
-      <c r="Y45" s="209"/>
-      <c r="Z45" s="209"/>
-      <c r="AA45" s="209"/>
-      <c r="AB45" s="209"/>
-      <c r="AC45" s="209"/>
+      <c r="S45" s="216"/>
+      <c r="T45" s="216"/>
+      <c r="U45" s="216"/>
+      <c r="V45" s="216"/>
+      <c r="W45" s="216"/>
+      <c r="X45" s="216"/>
+      <c r="Y45" s="216"/>
+      <c r="Z45" s="216"/>
+      <c r="AA45" s="216"/>
+      <c r="AB45" s="216"/>
+      <c r="AC45" s="216"/>
       <c r="AD45" s="43"/>
       <c r="AE45" s="43"/>
       <c r="AF45" s="43"/>
@@ -18970,37 +18968,37 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="214" t="s">
+      <c r="F83" s="204" t="s">
         <v>407</v>
       </c>
-      <c r="G83" s="214"/>
-      <c r="H83" s="214"/>
-      <c r="I83" s="214"/>
-      <c r="J83" s="214"/>
-      <c r="K83" s="214"/>
-      <c r="L83" s="214"/>
-      <c r="M83" s="214"/>
-      <c r="N83" s="214"/>
-      <c r="O83" s="214"/>
-      <c r="P83" s="214"/>
-      <c r="Q83" s="214"/>
-      <c r="R83" s="214"/>
-      <c r="S83" s="214"/>
-      <c r="T83" s="214"/>
-      <c r="U83" s="214"/>
-      <c r="V83" s="214"/>
-      <c r="W83" s="214"/>
-      <c r="X83" s="214"/>
-      <c r="Y83" s="214"/>
-      <c r="Z83" s="214"/>
-      <c r="AA83" s="214"/>
-      <c r="AB83" s="214"/>
-      <c r="AC83" s="214"/>
-      <c r="AD83" s="214"/>
-      <c r="AE83" s="214"/>
-      <c r="AF83" s="214"/>
-      <c r="AG83" s="214"/>
-      <c r="AH83" s="214"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
+      <c r="I83" s="204"/>
+      <c r="J83" s="204"/>
+      <c r="K83" s="204"/>
+      <c r="L83" s="204"/>
+      <c r="M83" s="204"/>
+      <c r="N83" s="204"/>
+      <c r="O83" s="204"/>
+      <c r="P83" s="204"/>
+      <c r="Q83" s="204"/>
+      <c r="R83" s="204"/>
+      <c r="S83" s="204"/>
+      <c r="T83" s="204"/>
+      <c r="U83" s="204"/>
+      <c r="V83" s="204"/>
+      <c r="W83" s="204"/>
+      <c r="X83" s="204"/>
+      <c r="Y83" s="204"/>
+      <c r="Z83" s="204"/>
+      <c r="AA83" s="204"/>
+      <c r="AB83" s="204"/>
+      <c r="AC83" s="204"/>
+      <c r="AD83" s="204"/>
+      <c r="AE83" s="204"/>
+      <c r="AF83" s="204"/>
+      <c r="AG83" s="204"/>
+      <c r="AH83" s="204"/>
       <c r="AI83" s="7"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
@@ -19204,37 +19202,37 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="214" t="s">
+      <c r="F89" s="204" t="s">
         <v>409</v>
       </c>
-      <c r="G89" s="214"/>
-      <c r="H89" s="214"/>
-      <c r="I89" s="214"/>
-      <c r="J89" s="214"/>
-      <c r="K89" s="214"/>
-      <c r="L89" s="214"/>
-      <c r="M89" s="214"/>
-      <c r="N89" s="214"/>
-      <c r="O89" s="214"/>
-      <c r="P89" s="214"/>
-      <c r="Q89" s="214"/>
-      <c r="R89" s="214"/>
-      <c r="S89" s="214"/>
-      <c r="T89" s="214"/>
-      <c r="U89" s="214"/>
-      <c r="V89" s="214"/>
-      <c r="W89" s="214"/>
-      <c r="X89" s="214"/>
-      <c r="Y89" s="214"/>
-      <c r="Z89" s="214"/>
-      <c r="AA89" s="214"/>
-      <c r="AB89" s="214"/>
-      <c r="AC89" s="214"/>
-      <c r="AD89" s="214"/>
-      <c r="AE89" s="214"/>
-      <c r="AF89" s="214"/>
-      <c r="AG89" s="214"/>
-      <c r="AH89" s="214"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
+      <c r="I89" s="204"/>
+      <c r="J89" s="204"/>
+      <c r="K89" s="204"/>
+      <c r="L89" s="204"/>
+      <c r="M89" s="204"/>
+      <c r="N89" s="204"/>
+      <c r="O89" s="204"/>
+      <c r="P89" s="204"/>
+      <c r="Q89" s="204"/>
+      <c r="R89" s="204"/>
+      <c r="S89" s="204"/>
+      <c r="T89" s="204"/>
+      <c r="U89" s="204"/>
+      <c r="V89" s="204"/>
+      <c r="W89" s="204"/>
+      <c r="X89" s="204"/>
+      <c r="Y89" s="204"/>
+      <c r="Z89" s="204"/>
+      <c r="AA89" s="204"/>
+      <c r="AB89" s="204"/>
+      <c r="AC89" s="204"/>
+      <c r="AD89" s="204"/>
+      <c r="AE89" s="204"/>
+      <c r="AF89" s="204"/>
+      <c r="AG89" s="204"/>
+      <c r="AH89" s="204"/>
       <c r="AI89" s="7"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
@@ -19282,37 +19280,37 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="214" t="s">
+      <c r="F91" s="204" t="s">
         <v>411</v>
       </c>
-      <c r="G91" s="214"/>
-      <c r="H91" s="214"/>
-      <c r="I91" s="214"/>
-      <c r="J91" s="214"/>
-      <c r="K91" s="214"/>
-      <c r="L91" s="214"/>
-      <c r="M91" s="214"/>
-      <c r="N91" s="214"/>
-      <c r="O91" s="214"/>
-      <c r="P91" s="214"/>
-      <c r="Q91" s="214"/>
-      <c r="R91" s="214"/>
-      <c r="S91" s="214"/>
-      <c r="T91" s="214"/>
-      <c r="U91" s="214"/>
-      <c r="V91" s="214"/>
-      <c r="W91" s="214"/>
-      <c r="X91" s="214"/>
-      <c r="Y91" s="214"/>
-      <c r="Z91" s="214"/>
-      <c r="AA91" s="214"/>
-      <c r="AB91" s="214"/>
-      <c r="AC91" s="214"/>
-      <c r="AD91" s="214"/>
-      <c r="AE91" s="214"/>
-      <c r="AF91" s="214"/>
-      <c r="AG91" s="214"/>
-      <c r="AH91" s="214"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
+      <c r="I91" s="204"/>
+      <c r="J91" s="204"/>
+      <c r="K91" s="204"/>
+      <c r="L91" s="204"/>
+      <c r="M91" s="204"/>
+      <c r="N91" s="204"/>
+      <c r="O91" s="204"/>
+      <c r="P91" s="204"/>
+      <c r="Q91" s="204"/>
+      <c r="R91" s="204"/>
+      <c r="S91" s="204"/>
+      <c r="T91" s="204"/>
+      <c r="U91" s="204"/>
+      <c r="V91" s="204"/>
+      <c r="W91" s="204"/>
+      <c r="X91" s="204"/>
+      <c r="Y91" s="204"/>
+      <c r="Z91" s="204"/>
+      <c r="AA91" s="204"/>
+      <c r="AB91" s="204"/>
+      <c r="AC91" s="204"/>
+      <c r="AD91" s="204"/>
+      <c r="AE91" s="204"/>
+      <c r="AF91" s="204"/>
+      <c r="AG91" s="204"/>
+      <c r="AH91" s="204"/>
       <c r="AI91" s="7"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
@@ -24431,37 +24429,37 @@
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
-      <c r="F226" s="214" t="s">
+      <c r="F226" s="204" t="s">
         <v>422</v>
       </c>
-      <c r="G226" s="214"/>
-      <c r="H226" s="214"/>
-      <c r="I226" s="214"/>
-      <c r="J226" s="214"/>
-      <c r="K226" s="214"/>
-      <c r="L226" s="214"/>
-      <c r="M226" s="214"/>
-      <c r="N226" s="214"/>
-      <c r="O226" s="214"/>
-      <c r="P226" s="214"/>
-      <c r="Q226" s="214"/>
-      <c r="R226" s="214"/>
-      <c r="S226" s="214"/>
-      <c r="T226" s="214"/>
-      <c r="U226" s="214"/>
-      <c r="V226" s="214"/>
-      <c r="W226" s="214"/>
-      <c r="X226" s="214"/>
-      <c r="Y226" s="214"/>
-      <c r="Z226" s="214"/>
-      <c r="AA226" s="214"/>
-      <c r="AB226" s="214"/>
-      <c r="AC226" s="214"/>
-      <c r="AD226" s="214"/>
-      <c r="AE226" s="214"/>
-      <c r="AF226" s="214"/>
-      <c r="AG226" s="214"/>
-      <c r="AH226" s="214"/>
+      <c r="G226" s="204"/>
+      <c r="H226" s="204"/>
+      <c r="I226" s="204"/>
+      <c r="J226" s="204"/>
+      <c r="K226" s="204"/>
+      <c r="L226" s="204"/>
+      <c r="M226" s="204"/>
+      <c r="N226" s="204"/>
+      <c r="O226" s="204"/>
+      <c r="P226" s="204"/>
+      <c r="Q226" s="204"/>
+      <c r="R226" s="204"/>
+      <c r="S226" s="204"/>
+      <c r="T226" s="204"/>
+      <c r="U226" s="204"/>
+      <c r="V226" s="204"/>
+      <c r="W226" s="204"/>
+      <c r="X226" s="204"/>
+      <c r="Y226" s="204"/>
+      <c r="Z226" s="204"/>
+      <c r="AA226" s="204"/>
+      <c r="AB226" s="204"/>
+      <c r="AC226" s="204"/>
+      <c r="AD226" s="204"/>
+      <c r="AE226" s="204"/>
+      <c r="AF226" s="204"/>
+      <c r="AG226" s="204"/>
+      <c r="AH226" s="204"/>
       <c r="AI226" s="7"/>
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.2">
@@ -25134,6 +25132,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="S27:AC27"/>
+    <mergeCell ref="S28:AC28"/>
+    <mergeCell ref="S29:AC29"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="S32:AC32"/>
+    <mergeCell ref="S33:AC33"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="G31:R31"/>
     <mergeCell ref="F83:AH83"/>
     <mergeCell ref="F89:AH89"/>
     <mergeCell ref="F91:AH91"/>
@@ -25150,45 +25187,6 @@
     <mergeCell ref="G23:R23"/>
     <mergeCell ref="S21:AC21"/>
     <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="S27:AC27"/>
-    <mergeCell ref="S28:AC28"/>
-    <mergeCell ref="S29:AC29"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="S32:AC32"/>
-    <mergeCell ref="S33:AC33"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -25226,169 +25224,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="str">
+      <c r="A1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="144" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="180" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Shell Script Development Standard</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="171" t="str">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="str">
+      <c r="A2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="144" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="str">
+      <c r="A3" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="144" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -27086,39 +27084,39 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="217" t="s">
+      <c r="F49" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="218"/>
-      <c r="H49" s="218"/>
-      <c r="I49" s="218"/>
-      <c r="J49" s="218"/>
-      <c r="K49" s="218"/>
-      <c r="L49" s="218"/>
-      <c r="M49" s="218"/>
-      <c r="N49" s="218"/>
-      <c r="O49" s="218"/>
-      <c r="P49" s="218"/>
-      <c r="Q49" s="218"/>
-      <c r="R49" s="218"/>
-      <c r="S49" s="218"/>
-      <c r="T49" s="218"/>
-      <c r="U49" s="218"/>
-      <c r="V49" s="219"/>
-      <c r="W49" s="217" t="s">
+      <c r="G49" s="223"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="223"/>
+      <c r="L49" s="223"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="223"/>
+      <c r="O49" s="223"/>
+      <c r="P49" s="223"/>
+      <c r="Q49" s="223"/>
+      <c r="R49" s="223"/>
+      <c r="S49" s="223"/>
+      <c r="T49" s="223"/>
+      <c r="U49" s="223"/>
+      <c r="V49" s="224"/>
+      <c r="W49" s="220" t="s">
         <v>273</v>
       </c>
-      <c r="X49" s="218"/>
-      <c r="Y49" s="218"/>
-      <c r="Z49" s="218"/>
-      <c r="AA49" s="218"/>
-      <c r="AB49" s="218"/>
-      <c r="AC49" s="218"/>
-      <c r="AD49" s="218"/>
-      <c r="AE49" s="218"/>
-      <c r="AF49" s="218"/>
-      <c r="AG49" s="218"/>
-      <c r="AH49" s="219"/>
+      <c r="X49" s="223"/>
+      <c r="Y49" s="223"/>
+      <c r="Z49" s="223"/>
+      <c r="AA49" s="223"/>
+      <c r="AB49" s="223"/>
+      <c r="AC49" s="223"/>
+      <c r="AD49" s="223"/>
+      <c r="AE49" s="223"/>
+      <c r="AF49" s="223"/>
+      <c r="AG49" s="223"/>
+      <c r="AH49" s="224"/>
       <c r="AI49" s="7"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
@@ -28260,39 +28258,39 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="217" t="s">
+      <c r="F79" s="220" t="s">
         <v>282</v>
       </c>
-      <c r="G79" s="218"/>
-      <c r="H79" s="218"/>
-      <c r="I79" s="218"/>
-      <c r="J79" s="218"/>
-      <c r="K79" s="218"/>
-      <c r="L79" s="218"/>
-      <c r="M79" s="218"/>
-      <c r="N79" s="218"/>
-      <c r="O79" s="218"/>
-      <c r="P79" s="218"/>
-      <c r="Q79" s="218"/>
-      <c r="R79" s="218"/>
-      <c r="S79" s="218"/>
-      <c r="T79" s="218"/>
-      <c r="U79" s="218"/>
-      <c r="V79" s="219"/>
-      <c r="W79" s="217" t="s">
+      <c r="G79" s="223"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+      <c r="K79" s="223"/>
+      <c r="L79" s="223"/>
+      <c r="M79" s="223"/>
+      <c r="N79" s="223"/>
+      <c r="O79" s="223"/>
+      <c r="P79" s="223"/>
+      <c r="Q79" s="223"/>
+      <c r="R79" s="223"/>
+      <c r="S79" s="223"/>
+      <c r="T79" s="223"/>
+      <c r="U79" s="223"/>
+      <c r="V79" s="224"/>
+      <c r="W79" s="220" t="s">
         <v>283</v>
       </c>
-      <c r="X79" s="218"/>
-      <c r="Y79" s="218"/>
-      <c r="Z79" s="218"/>
-      <c r="AA79" s="218"/>
-      <c r="AB79" s="218"/>
-      <c r="AC79" s="218"/>
-      <c r="AD79" s="218"/>
-      <c r="AE79" s="218"/>
-      <c r="AF79" s="218"/>
-      <c r="AG79" s="218"/>
-      <c r="AH79" s="219"/>
+      <c r="X79" s="223"/>
+      <c r="Y79" s="223"/>
+      <c r="Z79" s="223"/>
+      <c r="AA79" s="223"/>
+      <c r="AB79" s="223"/>
+      <c r="AC79" s="223"/>
+      <c r="AD79" s="223"/>
+      <c r="AE79" s="223"/>
+      <c r="AF79" s="223"/>
+      <c r="AG79" s="223"/>
+      <c r="AH79" s="224"/>
       <c r="AI79" s="13"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.2">
@@ -29387,39 +29385,39 @@
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="217" t="s">
+      <c r="F108" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G108" s="220"/>
-      <c r="H108" s="220"/>
-      <c r="I108" s="220"/>
-      <c r="J108" s="220"/>
-      <c r="K108" s="220"/>
-      <c r="L108" s="220"/>
-      <c r="M108" s="220"/>
-      <c r="N108" s="220"/>
-      <c r="O108" s="220"/>
-      <c r="P108" s="220"/>
-      <c r="Q108" s="220"/>
-      <c r="R108" s="220"/>
-      <c r="S108" s="220"/>
-      <c r="T108" s="220"/>
-      <c r="U108" s="220"/>
-      <c r="V108" s="221"/>
-      <c r="W108" s="217" t="s">
+      <c r="G108" s="221"/>
+      <c r="H108" s="221"/>
+      <c r="I108" s="221"/>
+      <c r="J108" s="221"/>
+      <c r="K108" s="221"/>
+      <c r="L108" s="221"/>
+      <c r="M108" s="221"/>
+      <c r="N108" s="221"/>
+      <c r="O108" s="221"/>
+      <c r="P108" s="221"/>
+      <c r="Q108" s="221"/>
+      <c r="R108" s="221"/>
+      <c r="S108" s="221"/>
+      <c r="T108" s="221"/>
+      <c r="U108" s="221"/>
+      <c r="V108" s="222"/>
+      <c r="W108" s="220" t="s">
         <v>290</v>
       </c>
-      <c r="X108" s="220"/>
-      <c r="Y108" s="220"/>
-      <c r="Z108" s="220"/>
-      <c r="AA108" s="220"/>
-      <c r="AB108" s="220"/>
-      <c r="AC108" s="220"/>
-      <c r="AD108" s="220"/>
-      <c r="AE108" s="220"/>
-      <c r="AF108" s="220"/>
-      <c r="AG108" s="220"/>
-      <c r="AH108" s="221"/>
+      <c r="X108" s="221"/>
+      <c r="Y108" s="221"/>
+      <c r="Z108" s="221"/>
+      <c r="AA108" s="221"/>
+      <c r="AB108" s="221"/>
+      <c r="AC108" s="221"/>
+      <c r="AD108" s="221"/>
+      <c r="AE108" s="221"/>
+      <c r="AF108" s="221"/>
+      <c r="AG108" s="221"/>
+      <c r="AH108" s="222"/>
       <c r="AI108" s="7"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.2">
@@ -30011,39 +30009,39 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="217" t="s">
+      <c r="F124" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G124" s="220"/>
-      <c r="H124" s="220"/>
-      <c r="I124" s="220"/>
-      <c r="J124" s="220"/>
-      <c r="K124" s="220"/>
-      <c r="L124" s="220"/>
-      <c r="M124" s="220"/>
-      <c r="N124" s="220"/>
-      <c r="O124" s="220"/>
-      <c r="P124" s="220"/>
-      <c r="Q124" s="220"/>
-      <c r="R124" s="220"/>
-      <c r="S124" s="220"/>
-      <c r="T124" s="220"/>
-      <c r="U124" s="220"/>
-      <c r="V124" s="221"/>
-      <c r="W124" s="217" t="s">
+      <c r="G124" s="221"/>
+      <c r="H124" s="221"/>
+      <c r="I124" s="221"/>
+      <c r="J124" s="221"/>
+      <c r="K124" s="221"/>
+      <c r="L124" s="221"/>
+      <c r="M124" s="221"/>
+      <c r="N124" s="221"/>
+      <c r="O124" s="221"/>
+      <c r="P124" s="221"/>
+      <c r="Q124" s="221"/>
+      <c r="R124" s="221"/>
+      <c r="S124" s="221"/>
+      <c r="T124" s="221"/>
+      <c r="U124" s="221"/>
+      <c r="V124" s="222"/>
+      <c r="W124" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="X124" s="220"/>
-      <c r="Y124" s="220"/>
-      <c r="Z124" s="220"/>
-      <c r="AA124" s="220"/>
-      <c r="AB124" s="220"/>
-      <c r="AC124" s="220"/>
-      <c r="AD124" s="220"/>
-      <c r="AE124" s="220"/>
-      <c r="AF124" s="220"/>
-      <c r="AG124" s="220"/>
-      <c r="AH124" s="221"/>
+      <c r="X124" s="221"/>
+      <c r="Y124" s="221"/>
+      <c r="Z124" s="221"/>
+      <c r="AA124" s="221"/>
+      <c r="AB124" s="221"/>
+      <c r="AC124" s="221"/>
+      <c r="AD124" s="221"/>
+      <c r="AE124" s="221"/>
+      <c r="AF124" s="221"/>
+      <c r="AG124" s="221"/>
+      <c r="AH124" s="222"/>
       <c r="AI124" s="7"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.2">
@@ -31667,39 +31665,39 @@
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="217" t="s">
+      <c r="F166" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G166" s="220"/>
-      <c r="H166" s="220"/>
-      <c r="I166" s="220"/>
-      <c r="J166" s="220"/>
-      <c r="K166" s="220"/>
-      <c r="L166" s="220"/>
-      <c r="M166" s="220"/>
-      <c r="N166" s="220"/>
-      <c r="O166" s="220"/>
-      <c r="P166" s="220"/>
-      <c r="Q166" s="220"/>
-      <c r="R166" s="220"/>
-      <c r="S166" s="220"/>
-      <c r="T166" s="220"/>
-      <c r="U166" s="220"/>
-      <c r="V166" s="221"/>
-      <c r="W166" s="217" t="s">
+      <c r="G166" s="221"/>
+      <c r="H166" s="221"/>
+      <c r="I166" s="221"/>
+      <c r="J166" s="221"/>
+      <c r="K166" s="221"/>
+      <c r="L166" s="221"/>
+      <c r="M166" s="221"/>
+      <c r="N166" s="221"/>
+      <c r="O166" s="221"/>
+      <c r="P166" s="221"/>
+      <c r="Q166" s="221"/>
+      <c r="R166" s="221"/>
+      <c r="S166" s="221"/>
+      <c r="T166" s="221"/>
+      <c r="U166" s="221"/>
+      <c r="V166" s="222"/>
+      <c r="W166" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="X166" s="220"/>
-      <c r="Y166" s="220"/>
-      <c r="Z166" s="220"/>
-      <c r="AA166" s="220"/>
-      <c r="AB166" s="220"/>
-      <c r="AC166" s="220"/>
-      <c r="AD166" s="220"/>
-      <c r="AE166" s="220"/>
-      <c r="AF166" s="220"/>
-      <c r="AG166" s="220"/>
-      <c r="AH166" s="221"/>
+      <c r="X166" s="221"/>
+      <c r="Y166" s="221"/>
+      <c r="Z166" s="221"/>
+      <c r="AA166" s="221"/>
+      <c r="AB166" s="221"/>
+      <c r="AC166" s="221"/>
+      <c r="AD166" s="221"/>
+      <c r="AE166" s="221"/>
+      <c r="AF166" s="221"/>
+      <c r="AG166" s="221"/>
+      <c r="AH166" s="222"/>
       <c r="AI166" s="13"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.2">
@@ -32923,39 +32921,39 @@
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="217" t="s">
+      <c r="F198" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G198" s="220"/>
-      <c r="H198" s="220"/>
-      <c r="I198" s="220"/>
-      <c r="J198" s="220"/>
-      <c r="K198" s="220"/>
-      <c r="L198" s="220"/>
-      <c r="M198" s="220"/>
-      <c r="N198" s="220"/>
-      <c r="O198" s="220"/>
-      <c r="P198" s="220"/>
-      <c r="Q198" s="220"/>
-      <c r="R198" s="220"/>
-      <c r="S198" s="220"/>
-      <c r="T198" s="220"/>
-      <c r="U198" s="220"/>
-      <c r="V198" s="221"/>
-      <c r="W198" s="217" t="s">
+      <c r="G198" s="221"/>
+      <c r="H198" s="221"/>
+      <c r="I198" s="221"/>
+      <c r="J198" s="221"/>
+      <c r="K198" s="221"/>
+      <c r="L198" s="221"/>
+      <c r="M198" s="221"/>
+      <c r="N198" s="221"/>
+      <c r="O198" s="221"/>
+      <c r="P198" s="221"/>
+      <c r="Q198" s="221"/>
+      <c r="R198" s="221"/>
+      <c r="S198" s="221"/>
+      <c r="T198" s="221"/>
+      <c r="U198" s="221"/>
+      <c r="V198" s="222"/>
+      <c r="W198" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="X198" s="220"/>
-      <c r="Y198" s="220"/>
-      <c r="Z198" s="220"/>
-      <c r="AA198" s="220"/>
-      <c r="AB198" s="220"/>
-      <c r="AC198" s="220"/>
-      <c r="AD198" s="220"/>
-      <c r="AE198" s="220"/>
-      <c r="AF198" s="220"/>
-      <c r="AG198" s="220"/>
-      <c r="AH198" s="221"/>
+      <c r="X198" s="221"/>
+      <c r="Y198" s="221"/>
+      <c r="Z198" s="221"/>
+      <c r="AA198" s="221"/>
+      <c r="AB198" s="221"/>
+      <c r="AC198" s="221"/>
+      <c r="AD198" s="221"/>
+      <c r="AE198" s="221"/>
+      <c r="AF198" s="221"/>
+      <c r="AG198" s="221"/>
+      <c r="AH198" s="222"/>
       <c r="AI198" s="13"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -34438,39 +34436,39 @@
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
-      <c r="F237" s="217" t="s">
+      <c r="F237" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G237" s="220"/>
-      <c r="H237" s="220"/>
-      <c r="I237" s="220"/>
-      <c r="J237" s="220"/>
-      <c r="K237" s="220"/>
-      <c r="L237" s="220"/>
-      <c r="M237" s="220"/>
-      <c r="N237" s="220"/>
-      <c r="O237" s="220"/>
-      <c r="P237" s="220"/>
-      <c r="Q237" s="220"/>
-      <c r="R237" s="220"/>
-      <c r="S237" s="220"/>
-      <c r="T237" s="220"/>
-      <c r="U237" s="220"/>
-      <c r="V237" s="221"/>
-      <c r="W237" s="217" t="s">
+      <c r="G237" s="221"/>
+      <c r="H237" s="221"/>
+      <c r="I237" s="221"/>
+      <c r="J237" s="221"/>
+      <c r="K237" s="221"/>
+      <c r="L237" s="221"/>
+      <c r="M237" s="221"/>
+      <c r="N237" s="221"/>
+      <c r="O237" s="221"/>
+      <c r="P237" s="221"/>
+      <c r="Q237" s="221"/>
+      <c r="R237" s="221"/>
+      <c r="S237" s="221"/>
+      <c r="T237" s="221"/>
+      <c r="U237" s="221"/>
+      <c r="V237" s="222"/>
+      <c r="W237" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="X237" s="220"/>
-      <c r="Y237" s="220"/>
-      <c r="Z237" s="220"/>
-      <c r="AA237" s="220"/>
-      <c r="AB237" s="220"/>
-      <c r="AC237" s="220"/>
-      <c r="AD237" s="220"/>
-      <c r="AE237" s="220"/>
-      <c r="AF237" s="220"/>
-      <c r="AG237" s="220"/>
-      <c r="AH237" s="221"/>
+      <c r="X237" s="221"/>
+      <c r="Y237" s="221"/>
+      <c r="Z237" s="221"/>
+      <c r="AA237" s="221"/>
+      <c r="AB237" s="221"/>
+      <c r="AC237" s="221"/>
+      <c r="AD237" s="221"/>
+      <c r="AE237" s="221"/>
+      <c r="AF237" s="221"/>
+      <c r="AG237" s="221"/>
+      <c r="AH237" s="222"/>
       <c r="AI237" s="13"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -34557,25 +34555,25 @@
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
-      <c r="F240" s="222" t="s">
+      <c r="F240" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="G240" s="223"/>
-      <c r="H240" s="223"/>
-      <c r="I240" s="223"/>
-      <c r="J240" s="223"/>
-      <c r="K240" s="223"/>
-      <c r="L240" s="223"/>
-      <c r="M240" s="223"/>
-      <c r="N240" s="223"/>
-      <c r="O240" s="223"/>
-      <c r="P240" s="223"/>
-      <c r="Q240" s="223"/>
-      <c r="R240" s="223"/>
-      <c r="S240" s="223"/>
-      <c r="T240" s="223"/>
-      <c r="U240" s="223"/>
-      <c r="V240" s="224"/>
+      <c r="G240" s="218"/>
+      <c r="H240" s="218"/>
+      <c r="I240" s="218"/>
+      <c r="J240" s="218"/>
+      <c r="K240" s="218"/>
+      <c r="L240" s="218"/>
+      <c r="M240" s="218"/>
+      <c r="N240" s="218"/>
+      <c r="O240" s="218"/>
+      <c r="P240" s="218"/>
+      <c r="Q240" s="218"/>
+      <c r="R240" s="218"/>
+      <c r="S240" s="218"/>
+      <c r="T240" s="218"/>
+      <c r="U240" s="218"/>
+      <c r="V240" s="219"/>
       <c r="W240" s="13"/>
       <c r="X240" s="13"/>
       <c r="Y240" s="13"/>
@@ -35292,39 +35290,39 @@
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
-      <c r="F259" s="217" t="s">
+      <c r="F259" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="G259" s="220"/>
-      <c r="H259" s="220"/>
-      <c r="I259" s="220"/>
-      <c r="J259" s="220"/>
-      <c r="K259" s="220"/>
-      <c r="L259" s="220"/>
-      <c r="M259" s="220"/>
-      <c r="N259" s="220"/>
-      <c r="O259" s="220"/>
-      <c r="P259" s="220"/>
-      <c r="Q259" s="220"/>
-      <c r="R259" s="220"/>
-      <c r="S259" s="220"/>
-      <c r="T259" s="220"/>
-      <c r="U259" s="220"/>
-      <c r="V259" s="221"/>
-      <c r="W259" s="217" t="s">
+      <c r="G259" s="221"/>
+      <c r="H259" s="221"/>
+      <c r="I259" s="221"/>
+      <c r="J259" s="221"/>
+      <c r="K259" s="221"/>
+      <c r="L259" s="221"/>
+      <c r="M259" s="221"/>
+      <c r="N259" s="221"/>
+      <c r="O259" s="221"/>
+      <c r="P259" s="221"/>
+      <c r="Q259" s="221"/>
+      <c r="R259" s="221"/>
+      <c r="S259" s="221"/>
+      <c r="T259" s="221"/>
+      <c r="U259" s="221"/>
+      <c r="V259" s="222"/>
+      <c r="W259" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="X259" s="220"/>
-      <c r="Y259" s="220"/>
-      <c r="Z259" s="220"/>
-      <c r="AA259" s="220"/>
-      <c r="AB259" s="220"/>
-      <c r="AC259" s="220"/>
-      <c r="AD259" s="220"/>
-      <c r="AE259" s="220"/>
-      <c r="AF259" s="220"/>
-      <c r="AG259" s="220"/>
-      <c r="AH259" s="221"/>
+      <c r="X259" s="221"/>
+      <c r="Y259" s="221"/>
+      <c r="Z259" s="221"/>
+      <c r="AA259" s="221"/>
+      <c r="AB259" s="221"/>
+      <c r="AC259" s="221"/>
+      <c r="AD259" s="221"/>
+      <c r="AE259" s="221"/>
+      <c r="AF259" s="221"/>
+      <c r="AG259" s="221"/>
+      <c r="AH259" s="222"/>
       <c r="AI259" s="13"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.2">
@@ -35834,39 +35832,39 @@
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
-      <c r="F273" s="217" t="s">
+      <c r="F273" s="220" t="s">
         <v>341</v>
       </c>
-      <c r="G273" s="218"/>
-      <c r="H273" s="218"/>
-      <c r="I273" s="218"/>
-      <c r="J273" s="218"/>
-      <c r="K273" s="218"/>
-      <c r="L273" s="218"/>
-      <c r="M273" s="218"/>
-      <c r="N273" s="218"/>
-      <c r="O273" s="218"/>
-      <c r="P273" s="218"/>
-      <c r="Q273" s="218"/>
-      <c r="R273" s="218"/>
-      <c r="S273" s="218"/>
-      <c r="T273" s="218"/>
-      <c r="U273" s="218"/>
-      <c r="V273" s="219"/>
-      <c r="W273" s="217" t="s">
+      <c r="G273" s="223"/>
+      <c r="H273" s="223"/>
+      <c r="I273" s="223"/>
+      <c r="J273" s="223"/>
+      <c r="K273" s="223"/>
+      <c r="L273" s="223"/>
+      <c r="M273" s="223"/>
+      <c r="N273" s="223"/>
+      <c r="O273" s="223"/>
+      <c r="P273" s="223"/>
+      <c r="Q273" s="223"/>
+      <c r="R273" s="223"/>
+      <c r="S273" s="223"/>
+      <c r="T273" s="223"/>
+      <c r="U273" s="223"/>
+      <c r="V273" s="224"/>
+      <c r="W273" s="220" t="s">
         <v>342</v>
       </c>
-      <c r="X273" s="218"/>
-      <c r="Y273" s="218"/>
-      <c r="Z273" s="218"/>
-      <c r="AA273" s="218"/>
-      <c r="AB273" s="218"/>
-      <c r="AC273" s="218"/>
-      <c r="AD273" s="218"/>
-      <c r="AE273" s="218"/>
-      <c r="AF273" s="218"/>
-      <c r="AG273" s="218"/>
-      <c r="AH273" s="219"/>
+      <c r="X273" s="223"/>
+      <c r="Y273" s="223"/>
+      <c r="Z273" s="223"/>
+      <c r="AA273" s="223"/>
+      <c r="AB273" s="223"/>
+      <c r="AC273" s="223"/>
+      <c r="AD273" s="223"/>
+      <c r="AE273" s="223"/>
+      <c r="AF273" s="223"/>
+      <c r="AG273" s="223"/>
+      <c r="AH273" s="224"/>
       <c r="AI273" s="7"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.2">
@@ -36696,39 +36694,39 @@
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
-      <c r="F295" s="217" t="s">
+      <c r="F295" s="220" t="s">
         <v>341</v>
       </c>
-      <c r="G295" s="218"/>
-      <c r="H295" s="218"/>
-      <c r="I295" s="218"/>
-      <c r="J295" s="218"/>
-      <c r="K295" s="218"/>
-      <c r="L295" s="218"/>
-      <c r="M295" s="218"/>
-      <c r="N295" s="218"/>
-      <c r="O295" s="218"/>
-      <c r="P295" s="218"/>
-      <c r="Q295" s="218"/>
-      <c r="R295" s="218"/>
-      <c r="S295" s="218"/>
-      <c r="T295" s="218"/>
-      <c r="U295" s="218"/>
-      <c r="V295" s="219"/>
-      <c r="W295" s="217" t="s">
+      <c r="G295" s="223"/>
+      <c r="H295" s="223"/>
+      <c r="I295" s="223"/>
+      <c r="J295" s="223"/>
+      <c r="K295" s="223"/>
+      <c r="L295" s="223"/>
+      <c r="M295" s="223"/>
+      <c r="N295" s="223"/>
+      <c r="O295" s="223"/>
+      <c r="P295" s="223"/>
+      <c r="Q295" s="223"/>
+      <c r="R295" s="223"/>
+      <c r="S295" s="223"/>
+      <c r="T295" s="223"/>
+      <c r="U295" s="223"/>
+      <c r="V295" s="224"/>
+      <c r="W295" s="220" t="s">
         <v>342</v>
       </c>
-      <c r="X295" s="218"/>
-      <c r="Y295" s="218"/>
-      <c r="Z295" s="218"/>
-      <c r="AA295" s="218"/>
-      <c r="AB295" s="218"/>
-      <c r="AC295" s="218"/>
-      <c r="AD295" s="218"/>
-      <c r="AE295" s="218"/>
-      <c r="AF295" s="218"/>
-      <c r="AG295" s="218"/>
-      <c r="AH295" s="219"/>
+      <c r="X295" s="223"/>
+      <c r="Y295" s="223"/>
+      <c r="Z295" s="223"/>
+      <c r="AA295" s="223"/>
+      <c r="AB295" s="223"/>
+      <c r="AC295" s="223"/>
+      <c r="AD295" s="223"/>
+      <c r="AE295" s="223"/>
+      <c r="AF295" s="223"/>
+      <c r="AG295" s="223"/>
+      <c r="AH295" s="224"/>
       <c r="AI295" s="13"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.2">
@@ -38322,39 +38320,39 @@
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
-      <c r="F337" s="217" t="s">
+      <c r="F337" s="220" t="s">
         <v>354</v>
       </c>
-      <c r="G337" s="218"/>
-      <c r="H337" s="218"/>
-      <c r="I337" s="218"/>
-      <c r="J337" s="218"/>
-      <c r="K337" s="218"/>
-      <c r="L337" s="218"/>
-      <c r="M337" s="218"/>
-      <c r="N337" s="218"/>
-      <c r="O337" s="218"/>
-      <c r="P337" s="218"/>
-      <c r="Q337" s="218"/>
-      <c r="R337" s="218"/>
-      <c r="S337" s="218"/>
-      <c r="T337" s="218"/>
-      <c r="U337" s="218"/>
-      <c r="V337" s="219"/>
-      <c r="W337" s="217" t="s">
+      <c r="G337" s="223"/>
+      <c r="H337" s="223"/>
+      <c r="I337" s="223"/>
+      <c r="J337" s="223"/>
+      <c r="K337" s="223"/>
+      <c r="L337" s="223"/>
+      <c r="M337" s="223"/>
+      <c r="N337" s="223"/>
+      <c r="O337" s="223"/>
+      <c r="P337" s="223"/>
+      <c r="Q337" s="223"/>
+      <c r="R337" s="223"/>
+      <c r="S337" s="223"/>
+      <c r="T337" s="223"/>
+      <c r="U337" s="223"/>
+      <c r="V337" s="224"/>
+      <c r="W337" s="220" t="s">
         <v>355</v>
       </c>
-      <c r="X337" s="218"/>
-      <c r="Y337" s="218"/>
-      <c r="Z337" s="218"/>
-      <c r="AA337" s="218"/>
-      <c r="AB337" s="218"/>
-      <c r="AC337" s="218"/>
-      <c r="AD337" s="218"/>
-      <c r="AE337" s="218"/>
-      <c r="AF337" s="218"/>
-      <c r="AG337" s="218"/>
-      <c r="AH337" s="219"/>
+      <c r="X337" s="223"/>
+      <c r="Y337" s="223"/>
+      <c r="Z337" s="223"/>
+      <c r="AA337" s="223"/>
+      <c r="AB337" s="223"/>
+      <c r="AC337" s="223"/>
+      <c r="AD337" s="223"/>
+      <c r="AE337" s="223"/>
+      <c r="AF337" s="223"/>
+      <c r="AG337" s="223"/>
+      <c r="AH337" s="224"/>
       <c r="AI337" s="7"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.2">
@@ -38774,21 +38772,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F240:V240"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -38805,15 +38797,21 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F240:V240"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -38851,169 +38849,169 @@
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="str">
+      <c r="A1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="144" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="180" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Shell Script Development Standard</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="171" t="str">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="str">
+      <c r="A2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="144" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="str">
+      <c r="A3" s="177" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="144" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -39411,40 +39409,40 @@
       <c r="D11" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="217" t="s">
+      <c r="E11" s="220" t="s">
         <v>361</v>
       </c>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="218"/>
-      <c r="U11" s="219"/>
-      <c r="V11" s="217" t="s">
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="W11" s="218"/>
-      <c r="X11" s="218"/>
-      <c r="Y11" s="218"/>
-      <c r="Z11" s="218"/>
-      <c r="AA11" s="218"/>
-      <c r="AB11" s="218"/>
-      <c r="AC11" s="218"/>
-      <c r="AD11" s="218"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="218"/>
-      <c r="AH11" s="219"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="223"/>
+      <c r="Y11" s="223"/>
+      <c r="Z11" s="223"/>
+      <c r="AA11" s="223"/>
+      <c r="AB11" s="223"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="224"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -39491,18 +39489,18 @@
       <c r="T12" s="229"/>
       <c r="U12" s="230"/>
       <c r="V12" s="234"/>
-      <c r="W12" s="220"/>
-      <c r="X12" s="220"/>
-      <c r="Y12" s="220"/>
-      <c r="Z12" s="220"/>
-      <c r="AA12" s="220"/>
-      <c r="AB12" s="220"/>
-      <c r="AC12" s="220"/>
-      <c r="AD12" s="220"/>
-      <c r="AE12" s="220"/>
-      <c r="AF12" s="220"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="221"/>
+      <c r="AG12" s="221"/>
+      <c r="AH12" s="222"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
@@ -42322,15 +42320,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V16:AH16"/>
     <mergeCell ref="E11:U11"/>
     <mergeCell ref="E12:U12"/>
@@ -42343,14 +42340,15 @@
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
     <mergeCell ref="V15:AH15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
